--- a/biology/Médecine/Atong_Rinchen_Gyaltsen/Atong_Rinchen_Gyaltsen.xlsx
+++ b/biology/Médecine/Atong_Rinchen_Gyaltsen/Atong_Rinchen_Gyaltsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atong Rinchen Gyaltsen, tibétain : ཨ་ཀྲོང་རིན་ཆེན་རྒྱལ་མཚན, Wylie : a krong rin chen rgyal mtshan,  né le 23 juillet 1981 à Drachen dans l'ancienne province tibétaine du Kham, au Tibet est un homme politique tibétain. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a appris la médecine tibétaine et les rituels religieux. En 2005, il s'est enfui en Inde où il a étudié les sutra et tantra bön au monastère de Menri pendant 15 ans. Après avoir terminé ses études en 2020, il a reçu un diplôme de guéshé (équivalent à un doctorat)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a appris la médecine tibétaine et les rituels religieux. En 2005, il s'est enfui en Inde où il a étudié les sutra et tantra bön au monastère de Menri pendant 15 ans. Après avoir terminé ses études en 2020, il a reçu un diplôme de guéshé (équivalent à un doctorat).
 Il est membre de la 17e assemblée tibétaine du Parlement tibétain en exil où représente la religion bön.
-En décembre 2021, il était un des six députés tibétains en visite à New Delhi pour participer à la relance du Forum parlementaire indien multipartite pour le Tibet[2].
+En décembre 2021, il était un des six députés tibétains en visite à New Delhi pour participer à la relance du Forum parlementaire indien multipartite pour le Tibet.
 </t>
         </is>
       </c>
